--- a/y-Manipulated Tables/DataSet/Tables/STATION.xlsx
+++ b/y-Manipulated Tables/DataSet/Tables/STATION.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BDSM\CSE303-sec-03-Group-03\y-Manipulated Tables\DataSet\Final Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BDSM\CSE303-sec-03-Group-03\y-Manipulated Tables\DataSet\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45D8BDE-D3D0-46BD-B2FC-CD3345DA23D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6D0536-B7D8-48A2-B9F6-2D2889436DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5160" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6183,8 +6183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63171248-C639-426A-8BBA-864EBEC70539}">
   <dimension ref="A1:E209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I78" sqref="I78"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/y-Manipulated Tables/DataSet/Tables/STATION.xlsx
+++ b/y-Manipulated Tables/DataSet/Tables/STATION.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BDSM\CSE303-sec-03-Group-03\y-Manipulated Tables\DataSet\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D320F7-09CD-4490-91C6-427BCD5484AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D886A5-6F43-418F-8339-AEA658B83579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1815" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="228">
   <si>
     <t>stationID</t>
   </si>
@@ -710,13 +710,25 @@
   </si>
   <si>
     <t>divsyl</t>
+  </si>
+  <si>
+    <t>orgID</t>
+  </si>
+  <si>
+    <t>org1</t>
+  </si>
+  <si>
+    <t>org2</t>
+  </si>
+  <si>
+    <t>org3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -727,6 +739,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1035,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63171248-C639-426A-8BBA-864EBEC70539}">
-  <dimension ref="A1:E209"/>
+  <dimension ref="A1:F209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H220" sqref="H220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,7 +1067,7 @@
     <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1065,8 +1083,11 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A65" si="0">CONCATENATE(LEFT(D2,3),LEFT(E2,3),C2)</f>
         <v>EPAdiv1</v>
@@ -1083,8 +1104,11 @@
       <c r="E2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv10</v>
@@ -1101,8 +1125,11 @@
       <c r="E3" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv11</v>
@@ -1119,8 +1146,11 @@
       <c r="E4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv12</v>
@@ -1137,8 +1167,11 @@
       <c r="E5" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv13</v>
@@ -1155,8 +1188,11 @@
       <c r="E6" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv16</v>
@@ -1173,8 +1209,11 @@
       <c r="E7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv17</v>
@@ -1191,8 +1230,11 @@
       <c r="E8" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv19</v>
@@ -1209,8 +1251,11 @@
       <c r="E9" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv2</v>
@@ -1227,8 +1272,11 @@
       <c r="E10" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv20</v>
@@ -1245,8 +1293,11 @@
       <c r="E11" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv21</v>
@@ -1263,8 +1314,11 @@
       <c r="E12" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv22</v>
@@ -1281,8 +1335,11 @@
       <c r="E13" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv3</v>
@@ -1299,8 +1356,11 @@
       <c r="E14" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv4</v>
@@ -1317,8 +1377,11 @@
       <c r="E15" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv5</v>
@@ -1335,8 +1398,11 @@
       <c r="E16" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv6</v>
@@ -1353,8 +1419,11 @@
       <c r="E17" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv7</v>
@@ -1371,8 +1440,11 @@
       <c r="E18" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv9</v>
@@ -1389,8 +1461,11 @@
       <c r="E19" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv14</v>
@@ -1407,8 +1482,11 @@
       <c r="E20" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv15</v>
@@ -1425,8 +1503,11 @@
       <c r="E21" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv18</v>
@@ -1443,8 +1524,11 @@
       <c r="E22" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv23</v>
@@ -1461,8 +1545,11 @@
       <c r="E23" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv8</v>
@@ -1479,8 +1566,11 @@
       <c r="E24" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv1</v>
@@ -1497,8 +1587,11 @@
       <c r="E25" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv10</v>
@@ -1515,8 +1608,11 @@
       <c r="E26" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv11</v>
@@ -1533,8 +1629,11 @@
       <c r="E27" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv12</v>
@@ -1551,8 +1650,11 @@
       <c r="E28" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv13</v>
@@ -1569,8 +1671,11 @@
       <c r="E29" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv14</v>
@@ -1587,8 +1692,11 @@
       <c r="E30" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv15</v>
@@ -1605,8 +1713,11 @@
       <c r="E31" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv16</v>
@@ -1623,8 +1734,11 @@
       <c r="E32" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv18</v>
@@ -1641,8 +1755,11 @@
       <c r="E33" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv2</v>
@@ -1659,8 +1776,11 @@
       <c r="E34" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv20</v>
@@ -1677,8 +1797,11 @@
       <c r="E35" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv21</v>
@@ -1695,8 +1818,11 @@
       <c r="E36" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv23</v>
@@ -1713,8 +1839,11 @@
       <c r="E37" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv3</v>
@@ -1731,8 +1860,11 @@
       <c r="E38" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv4</v>
@@ -1749,8 +1881,11 @@
       <c r="E39" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv5</v>
@@ -1767,8 +1902,11 @@
       <c r="E40" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv7</v>
@@ -1785,8 +1923,11 @@
       <c r="E41" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv8</v>
@@ -1803,8 +1944,11 @@
       <c r="E42" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv9</v>
@@ -1821,8 +1965,11 @@
       <c r="E43" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv19</v>
@@ -1839,8 +1986,11 @@
       <c r="E44" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv22</v>
@@ -1857,8 +2007,11 @@
       <c r="E45" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv6</v>
@@ -1875,8 +2028,11 @@
       <c r="E46" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv17</v>
@@ -1893,8 +2049,11 @@
       <c r="E47" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv1</v>
@@ -1911,8 +2070,11 @@
       <c r="E48" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv11</v>
@@ -1929,8 +2091,11 @@
       <c r="E49" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv12</v>
@@ -1947,8 +2112,11 @@
       <c r="E50" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv13</v>
@@ -1965,8 +2133,11 @@
       <c r="E51" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv14</v>
@@ -1983,8 +2154,11 @@
       <c r="E52" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv16</v>
@@ -2001,8 +2175,11 @@
       <c r="E53" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv17</v>
@@ -2019,8 +2196,11 @@
       <c r="E54" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv18</v>
@@ -2037,8 +2217,11 @@
       <c r="E55" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv19</v>
@@ -2055,8 +2238,11 @@
       <c r="E56" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv2</v>
@@ -2073,8 +2259,11 @@
       <c r="E57" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv20</v>
@@ -2091,8 +2280,11 @@
       <c r="E58" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv21</v>
@@ -2109,8 +2301,11 @@
       <c r="E59" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv22</v>
@@ -2127,8 +2322,11 @@
       <c r="E60" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv3</v>
@@ -2145,8 +2343,11 @@
       <c r="E61" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv4</v>
@@ -2163,8 +2364,11 @@
       <c r="E62" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv6</v>
@@ -2181,8 +2385,11 @@
       <c r="E63" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv7</v>
@@ -2199,8 +2406,11 @@
       <c r="E64" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>EPAdiv8</v>
@@ -2217,8 +2427,11 @@
       <c r="E65" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f t="shared" ref="A66:A129" si="1">CONCATENATE(LEFT(D66,3),LEFT(E66,3),C66)</f>
         <v>EPAdiv9</v>
@@ -2235,8 +2448,11 @@
       <c r="E66" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f t="shared" si="1"/>
         <v>EPAdiv15</v>
@@ -2253,8 +2469,11 @@
       <c r="E67" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv18</v>
@@ -2271,8 +2490,11 @@
       <c r="E68" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv2</v>
@@ -2289,8 +2511,11 @@
       <c r="E69" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv20</v>
@@ -2307,8 +2532,11 @@
       <c r="E70" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv21</v>
@@ -2325,8 +2553,11 @@
       <c r="E71" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv22</v>
@@ -2343,8 +2574,11 @@
       <c r="E72" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv23</v>
@@ -2361,8 +2595,11 @@
       <c r="E73" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv3</v>
@@ -2379,8 +2616,11 @@
       <c r="E74" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv4</v>
@@ -2397,8 +2637,11 @@
       <c r="E75" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv5</v>
@@ -2415,8 +2658,11 @@
       <c r="E76" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv7</v>
@@ -2433,8 +2679,11 @@
       <c r="E77" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv8</v>
@@ -2451,8 +2700,11 @@
       <c r="E78" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv1</v>
@@ -2469,8 +2721,11 @@
       <c r="E79" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv10</v>
@@ -2487,8 +2742,11 @@
       <c r="E80" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv12</v>
@@ -2505,8 +2763,11 @@
       <c r="E81" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv13</v>
@@ -2523,8 +2784,11 @@
       <c r="E82" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv14</v>
@@ -2541,8 +2805,11 @@
       <c r="E83" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv15</v>
@@ -2559,8 +2826,11 @@
       <c r="E84" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv19</v>
@@ -2577,8 +2847,11 @@
       <c r="E85" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv6</v>
@@ -2595,8 +2868,11 @@
       <c r="E86" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv9</v>
@@ -2613,8 +2889,11 @@
       <c r="E87" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv1</v>
@@ -2631,8 +2910,11 @@
       <c r="E88" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv10</v>
@@ -2649,8 +2931,11 @@
       <c r="E89" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv11</v>
@@ -2667,8 +2952,11 @@
       <c r="E90" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv12</v>
@@ -2685,8 +2973,11 @@
       <c r="E91" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv14</v>
@@ -2703,8 +2994,11 @@
       <c r="E92" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv15</v>
@@ -2721,8 +3015,11 @@
       <c r="E93" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv16</v>
@@ -2739,8 +3036,11 @@
       <c r="E94" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv17</v>
@@ -2757,8 +3057,11 @@
       <c r="E95" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv18</v>
@@ -2775,8 +3078,11 @@
       <c r="E96" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv19</v>
@@ -2793,8 +3099,11 @@
       <c r="E97" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv2</v>
@@ -2811,8 +3120,11 @@
       <c r="E98" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv20</v>
@@ -2829,8 +3141,11 @@
       <c r="E99" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv21</v>
@@ -2847,8 +3162,11 @@
       <c r="E100" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv22</v>
@@ -2865,8 +3183,11 @@
       <c r="E101" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv23</v>
@@ -2883,8 +3204,11 @@
       <c r="E102" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv3</v>
@@ -2901,8 +3225,11 @@
       <c r="E103" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv4</v>
@@ -2919,8 +3246,11 @@
       <c r="E104" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv5</v>
@@ -2937,8 +3267,11 @@
       <c r="E105" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv6</v>
@@ -2955,8 +3288,11 @@
       <c r="E106" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv7</v>
@@ -2973,8 +3309,11 @@
       <c r="E107" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv9</v>
@@ -2991,8 +3330,11 @@
       <c r="E108" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv13</v>
@@ -3009,8 +3351,11 @@
       <c r="E109" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv8</v>
@@ -3027,8 +3372,11 @@
       <c r="E110" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv10</v>
@@ -3045,8 +3393,11 @@
       <c r="E111" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv11</v>
@@ -3063,8 +3414,11 @@
       <c r="E112" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv12</v>
@@ -3081,8 +3435,11 @@
       <c r="E113" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv13</v>
@@ -3099,8 +3456,11 @@
       <c r="E114" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv14</v>
@@ -3117,8 +3477,11 @@
       <c r="E115" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv15</v>
@@ -3135,8 +3498,11 @@
       <c r="E116" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv16</v>
@@ -3153,8 +3519,11 @@
       <c r="E117" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv17</v>
@@ -3171,8 +3540,11 @@
       <c r="E118" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv18</v>
@@ -3189,8 +3561,11 @@
       <c r="E119" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv19</v>
@@ -3207,8 +3582,11 @@
       <c r="E120" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv20</v>
@@ -3225,8 +3603,11 @@
       <c r="E121" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv21</v>
@@ -3243,8 +3624,11 @@
       <c r="E122" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv22</v>
@@ -3261,8 +3645,11 @@
       <c r="E123" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv23</v>
@@ -3279,8 +3666,11 @@
       <c r="E124" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv4</v>
@@ -3297,8 +3687,11 @@
       <c r="E125" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv5</v>
@@ -3315,8 +3708,11 @@
       <c r="E126" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv6</v>
@@ -3333,8 +3729,11 @@
       <c r="E127" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv7</v>
@@ -3351,8 +3750,11 @@
       <c r="E128" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
         <f t="shared" si="1"/>
         <v>IQAdiv8</v>
@@ -3369,8 +3771,11 @@
       <c r="E129" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
         <f t="shared" ref="A130:A193" si="2">CONCATENATE(LEFT(D130,3),LEFT(E130,3),C130)</f>
         <v>IQAdiv1</v>
@@ -3387,8 +3792,11 @@
       <c r="E130" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F130" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
         <f t="shared" si="2"/>
         <v>IQAdiv2</v>
@@ -3405,8 +3813,11 @@
       <c r="E131" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
         <f t="shared" si="2"/>
         <v>IQAdiv3</v>
@@ -3423,8 +3834,11 @@
       <c r="E132" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
         <f t="shared" si="2"/>
         <v>IQAdiv9</v>
@@ -3441,8 +3855,11 @@
       <c r="E133" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
         <f t="shared" si="2"/>
         <v>IQAdiv1</v>
@@ -3459,8 +3876,11 @@
       <c r="E134" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
         <f t="shared" si="2"/>
         <v>IQAdiv10</v>
@@ -3477,8 +3897,11 @@
       <c r="E135" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
         <f t="shared" si="2"/>
         <v>IQAdiv11</v>
@@ -3495,8 +3918,11 @@
       <c r="E136" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
         <f t="shared" si="2"/>
         <v>IQAdiv12</v>
@@ -3513,8 +3939,11 @@
       <c r="E137" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F137" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
         <f t="shared" si="2"/>
         <v>IQAdiv13</v>
@@ -3531,8 +3960,11 @@
       <c r="E138" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
         <f t="shared" si="2"/>
         <v>IQAdiv15</v>
@@ -3549,8 +3981,11 @@
       <c r="E139" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F139" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
         <f t="shared" si="2"/>
         <v>IQAdiv16</v>
@@ -3567,8 +4002,11 @@
       <c r="E140" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F140" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv18</v>
@@ -3585,8 +4023,11 @@
       <c r="E141" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F141" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv19</v>
@@ -3603,8 +4044,11 @@
       <c r="E142" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F142" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv2</v>
@@ -3621,8 +4065,11 @@
       <c r="E143" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F143" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv20</v>
@@ -3639,8 +4086,11 @@
       <c r="E144" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F144" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv21</v>
@@ -3657,8 +4107,11 @@
       <c r="E145" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F145" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv22</v>
@@ -3675,8 +4128,11 @@
       <c r="E146" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F146" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv23</v>
@@ -3693,8 +4149,11 @@
       <c r="E147" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F147" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv5</v>
@@ -3711,8 +4170,11 @@
       <c r="E148" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F148" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv6</v>
@@ -3729,8 +4191,11 @@
       <c r="E149" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F149" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv7</v>
@@ -3747,8 +4212,11 @@
       <c r="E150" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F150" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv8</v>
@@ -3765,8 +4233,11 @@
       <c r="E151" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F151" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv1</v>
@@ -3783,8 +4254,11 @@
       <c r="E152" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F152" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv11</v>
@@ -3801,8 +4275,11 @@
       <c r="E153" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F153" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv12</v>
@@ -3819,8 +4296,11 @@
       <c r="E154" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F154" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv15</v>
@@ -3837,8 +4317,11 @@
       <c r="E155" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F155" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv16</v>
@@ -3855,8 +4338,11 @@
       <c r="E156" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F156" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv17</v>
@@ -3873,8 +4359,11 @@
       <c r="E157" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F157" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv3</v>
@@ -3891,8 +4380,11 @@
       <c r="E158" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F158" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv4</v>
@@ -3909,8 +4401,11 @@
       <c r="E159" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F159" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv9</v>
@@ -3927,8 +4422,11 @@
       <c r="E160" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F160" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv10</v>
@@ -3945,8 +4443,11 @@
       <c r="E161" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F161" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv13</v>
@@ -3963,8 +4464,11 @@
       <c r="E162" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F162" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv14</v>
@@ -3981,8 +4485,11 @@
       <c r="E163" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F163" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv1</v>
@@ -3999,8 +4506,11 @@
       <c r="E164" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F164" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv10</v>
@@ -4017,8 +4527,11 @@
       <c r="E165" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F165" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv11</v>
@@ -4035,8 +4548,11 @@
       <c r="E166" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F166" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv12</v>
@@ -4053,8 +4569,11 @@
       <c r="E167" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F167" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv13</v>
@@ -4071,8 +4590,11 @@
       <c r="E168" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F168" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv14</v>
@@ -4089,8 +4611,11 @@
       <c r="E169" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F169" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv15</v>
@@ -4107,8 +4632,11 @@
       <c r="E170" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F170" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv17</v>
@@ -4125,8 +4653,11 @@
       <c r="E171" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F171" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv18</v>
@@ -4143,8 +4674,11 @@
       <c r="E172" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F172" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv19</v>
@@ -4161,8 +4695,11 @@
       <c r="E173" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F173" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv20</v>
@@ -4179,8 +4716,11 @@
       <c r="E174" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F174" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv21</v>
@@ -4197,8 +4737,11 @@
       <c r="E175" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F175" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv23</v>
@@ -4215,8 +4758,11 @@
       <c r="E176" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F176" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv3</v>
@@ -4233,8 +4779,11 @@
       <c r="E177" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F177" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv4</v>
@@ -4251,8 +4800,11 @@
       <c r="E178" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F178" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv5</v>
@@ -4269,8 +4821,11 @@
       <c r="E179" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F179" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv7</v>
@@ -4287,8 +4842,11 @@
       <c r="E180" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F180" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv16</v>
@@ -4305,8 +4863,11 @@
       <c r="E181" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F181" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv2</v>
@@ -4323,8 +4884,11 @@
       <c r="E182" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F182" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv8</v>
@@ -4341,8 +4905,11 @@
       <c r="E183" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F183" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv9</v>
@@ -4359,8 +4926,11 @@
       <c r="E184" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F184" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv22</v>
@@ -4377,8 +4947,11 @@
       <c r="E185" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F185" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv6</v>
@@ -4395,8 +4968,11 @@
       <c r="E186" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F186" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv1</v>
@@ -4413,8 +4989,11 @@
       <c r="E187" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F187" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv10</v>
@@ -4431,8 +5010,11 @@
       <c r="E188" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F188" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv11</v>
@@ -4449,8 +5031,11 @@
       <c r="E189" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F189" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv13</v>
@@ -4467,8 +5052,11 @@
       <c r="E190" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F190" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv14</v>
@@ -4485,8 +5073,11 @@
       <c r="E191" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F191" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv15</v>
@@ -4503,8 +5094,11 @@
       <c r="E192" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F192" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="str">
         <f t="shared" si="2"/>
         <v>Purdiv16</v>
@@ -4521,8 +5115,11 @@
       <c r="E193" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F193" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="str">
         <f t="shared" ref="A194:A209" si="3">CONCATENATE(LEFT(D194,3),LEFT(E194,3),C194)</f>
         <v>Purdiv17</v>
@@ -4539,8 +5136,11 @@
       <c r="E194" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F194" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="str">
         <f t="shared" si="3"/>
         <v>Purdiv18</v>
@@ -4557,8 +5157,11 @@
       <c r="E195" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F195" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="str">
         <f t="shared" si="3"/>
         <v>Purdiv19</v>
@@ -4575,8 +5178,11 @@
       <c r="E196" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F196" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="str">
         <f t="shared" si="3"/>
         <v>Purdiv2</v>
@@ -4593,8 +5199,11 @@
       <c r="E197" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F197" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="str">
         <f t="shared" si="3"/>
         <v>Purdiv20</v>
@@ -4611,8 +5220,11 @@
       <c r="E198" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F198" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="str">
         <f t="shared" si="3"/>
         <v>Purdiv21</v>
@@ -4629,8 +5241,11 @@
       <c r="E199" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F199" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="str">
         <f t="shared" si="3"/>
         <v>Purdiv23</v>
@@ -4647,8 +5262,11 @@
       <c r="E200" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F200" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="str">
         <f t="shared" si="3"/>
         <v>Purdiv3</v>
@@ -4665,8 +5283,11 @@
       <c r="E201" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F201" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="str">
         <f t="shared" si="3"/>
         <v>Purdiv5</v>
@@ -4683,8 +5304,11 @@
       <c r="E202" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F202" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="str">
         <f t="shared" si="3"/>
         <v>Purdiv7</v>
@@ -4701,8 +5325,11 @@
       <c r="E203" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F203" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="str">
         <f t="shared" si="3"/>
         <v>Purdiv8</v>
@@ -4719,8 +5346,11 @@
       <c r="E204" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F204" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="str">
         <f t="shared" si="3"/>
         <v>Purdiv12</v>
@@ -4737,8 +5367,11 @@
       <c r="E205" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F205" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="str">
         <f t="shared" si="3"/>
         <v>Purdiv22</v>
@@ -4755,8 +5388,11 @@
       <c r="E206" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F206" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="str">
         <f t="shared" si="3"/>
         <v>Purdiv4</v>
@@ -4773,8 +5409,11 @@
       <c r="E207" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F207" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="str">
         <f t="shared" si="3"/>
         <v>Purdiv6</v>
@@ -4791,8 +5430,11 @@
       <c r="E208" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F208" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="str">
         <f t="shared" si="3"/>
         <v>Purdiv9</v>
@@ -4808,6 +5450,9 @@
       </c>
       <c r="E209" t="s">
         <v>223</v>
+      </c>
+      <c r="F209" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -4815,6 +5460,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C1034">
     <sortCondition ref="C1:C1034"/>
   </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/y-Manipulated Tables/DataSet/Tables/STATION.xlsx
+++ b/y-Manipulated Tables/DataSet/Tables/STATION.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BDSM\CSE303-sec-03-Group-03\y-Manipulated Tables\DataSet\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Niaz\git\CSE303-sec-03-Group-03\y-Manipulated Tables\DataSet\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D886A5-6F43-418F-8339-AEA658B83579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$C$1:$C$466</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$F$209</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -727,7 +726,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1052,22 +1051,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63171248-C639-426A-8BBA-864EBEC70539}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H220" sqref="H220"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A209"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1087,10 +1086,10 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
-        <f t="shared" ref="A2:A65" si="0">CONCATENATE(LEFT(D2,3),LEFT(E2,3),C2)</f>
-        <v>EPAdiv1</v>
+        <f>CONCATENATE(LEFT(D2,3),RIGHT(E2,3),C2)</f>
+        <v>EPAbar1</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1108,10 +1107,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
-        <f t="shared" si="0"/>
-        <v>EPAdiv10</v>
+        <f t="shared" ref="A3:A66" si="0">CONCATENATE(LEFT(D3,3),RIGHT(E3,3),C3)</f>
+        <v>EPAbar10</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -1129,10 +1128,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv11</v>
+        <v>EPAbar11</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -1150,10 +1149,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv12</v>
+        <v>EPAbar12</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -1171,10 +1170,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv13</v>
+        <v>EPAbar13</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -1192,10 +1191,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv16</v>
+        <v>EPAbar16</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1213,10 +1212,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv17</v>
+        <v>EPAbar17</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -1234,10 +1233,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv19</v>
+        <v>EPAbar19</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -1255,10 +1254,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv2</v>
+        <v>EPAbar2</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -1276,10 +1275,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv20</v>
+        <v>EPAbar20</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -1297,10 +1296,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv21</v>
+        <v>EPAbar21</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -1318,10 +1317,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv22</v>
+        <v>EPAbar22</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -1339,10 +1338,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv3</v>
+        <v>EPAbar3</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -1360,10 +1359,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv4</v>
+        <v>EPAbar4</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
@@ -1381,10 +1380,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv5</v>
+        <v>EPAbar5</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -1402,10 +1401,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv6</v>
+        <v>EPAbar6</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
@@ -1423,10 +1422,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv7</v>
+        <v>EPAbar7</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -1444,10 +1443,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv9</v>
+        <v>EPAbar9</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1465,10 +1464,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv14</v>
+        <v>EPAbar14</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1486,10 +1485,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv15</v>
+        <v>EPAbar15</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
@@ -1507,10 +1506,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv18</v>
+        <v>EPAbar18</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
@@ -1528,10 +1527,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv23</v>
+        <v>EPAbar23</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -1549,10 +1548,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv8</v>
+        <v>EPAbar8</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
@@ -1570,10 +1569,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv1</v>
+        <v>EPAchi1</v>
       </c>
       <c r="B25" t="s">
         <v>31</v>
@@ -1591,10 +1590,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv10</v>
+        <v>EPAchi10</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
@@ -1612,10 +1611,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv11</v>
+        <v>EPAchi11</v>
       </c>
       <c r="B27" t="s">
         <v>33</v>
@@ -1633,10 +1632,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv12</v>
+        <v>EPAchi12</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
@@ -1654,10 +1653,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv13</v>
+        <v>EPAchi13</v>
       </c>
       <c r="B29" t="s">
         <v>35</v>
@@ -1675,10 +1674,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv14</v>
+        <v>EPAchi14</v>
       </c>
       <c r="B30" t="s">
         <v>36</v>
@@ -1696,10 +1695,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv15</v>
+        <v>EPAchi15</v>
       </c>
       <c r="B31" t="s">
         <v>37</v>
@@ -1717,10 +1716,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv16</v>
+        <v>EPAchi16</v>
       </c>
       <c r="B32" t="s">
         <v>38</v>
@@ -1738,10 +1737,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv18</v>
+        <v>EPAchi18</v>
       </c>
       <c r="B33" t="s">
         <v>39</v>
@@ -1759,10 +1758,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv2</v>
+        <v>EPAchi2</v>
       </c>
       <c r="B34" t="s">
         <v>40</v>
@@ -1780,10 +1779,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv20</v>
+        <v>EPAchi20</v>
       </c>
       <c r="B35" t="s">
         <v>41</v>
@@ -1801,10 +1800,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv21</v>
+        <v>EPAchi21</v>
       </c>
       <c r="B36" t="s">
         <v>42</v>
@@ -1822,10 +1821,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv23</v>
+        <v>EPAchi23</v>
       </c>
       <c r="B37" t="s">
         <v>43</v>
@@ -1843,10 +1842,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv3</v>
+        <v>EPAchi3</v>
       </c>
       <c r="B38" t="s">
         <v>44</v>
@@ -1864,10 +1863,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv4</v>
+        <v>EPAchi4</v>
       </c>
       <c r="B39" t="s">
         <v>45</v>
@@ -1885,10 +1884,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv5</v>
+        <v>EPAchi5</v>
       </c>
       <c r="B40" t="s">
         <v>46</v>
@@ -1906,10 +1905,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv7</v>
+        <v>EPAchi7</v>
       </c>
       <c r="B41" t="s">
         <v>47</v>
@@ -1927,10 +1926,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv8</v>
+        <v>EPAchi8</v>
       </c>
       <c r="B42" t="s">
         <v>48</v>
@@ -1948,10 +1947,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv9</v>
+        <v>EPAchi9</v>
       </c>
       <c r="B43" t="s">
         <v>49</v>
@@ -1969,10 +1968,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv19</v>
+        <v>EPAchi19</v>
       </c>
       <c r="B44" t="s">
         <v>50</v>
@@ -1990,10 +1989,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv22</v>
+        <v>EPAchi22</v>
       </c>
       <c r="B45" t="s">
         <v>51</v>
@@ -2011,10 +2010,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv6</v>
+        <v>EPAchi6</v>
       </c>
       <c r="B46" t="s">
         <v>52</v>
@@ -2032,10 +2031,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv17</v>
+        <v>EPAchi17</v>
       </c>
       <c r="B47" t="s">
         <v>53</v>
@@ -2053,10 +2052,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv1</v>
+        <v>EPAdha1</v>
       </c>
       <c r="B48" t="s">
         <v>54</v>
@@ -2074,10 +2073,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv11</v>
+        <v>EPAdha11</v>
       </c>
       <c r="B49" t="s">
         <v>55</v>
@@ -2095,10 +2094,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv12</v>
+        <v>EPAdha12</v>
       </c>
       <c r="B50" t="s">
         <v>56</v>
@@ -2116,10 +2115,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv13</v>
+        <v>EPAdha13</v>
       </c>
       <c r="B51" t="s">
         <v>57</v>
@@ -2137,10 +2136,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv14</v>
+        <v>EPAdha14</v>
       </c>
       <c r="B52" t="s">
         <v>58</v>
@@ -2158,10 +2157,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv16</v>
+        <v>EPAdha16</v>
       </c>
       <c r="B53" t="s">
         <v>59</v>
@@ -2179,10 +2178,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv17</v>
+        <v>EPAdha17</v>
       </c>
       <c r="B54" t="s">
         <v>60</v>
@@ -2200,10 +2199,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv18</v>
+        <v>EPAdha18</v>
       </c>
       <c r="B55" t="s">
         <v>61</v>
@@ -2221,10 +2220,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv19</v>
+        <v>EPAdha19</v>
       </c>
       <c r="B56" t="s">
         <v>62</v>
@@ -2242,10 +2241,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv2</v>
+        <v>EPAdha2</v>
       </c>
       <c r="B57" t="s">
         <v>63</v>
@@ -2263,10 +2262,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv20</v>
+        <v>EPAdha20</v>
       </c>
       <c r="B58" t="s">
         <v>64</v>
@@ -2284,10 +2283,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv21</v>
+        <v>EPAdha21</v>
       </c>
       <c r="B59" t="s">
         <v>65</v>
@@ -2305,10 +2304,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv22</v>
+        <v>EPAdha22</v>
       </c>
       <c r="B60" t="s">
         <v>66</v>
@@ -2326,10 +2325,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv3</v>
+        <v>EPAdha3</v>
       </c>
       <c r="B61" t="s">
         <v>67</v>
@@ -2347,10 +2346,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv4</v>
+        <v>EPAdha4</v>
       </c>
       <c r="B62" t="s">
         <v>68</v>
@@ -2368,10 +2367,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv6</v>
+        <v>EPAdha6</v>
       </c>
       <c r="B63" t="s">
         <v>69</v>
@@ -2389,10 +2388,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv7</v>
+        <v>EPAdha7</v>
       </c>
       <c r="B64" t="s">
         <v>70</v>
@@ -2410,10 +2409,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
-        <v>EPAdiv8</v>
+        <v>EPAdha8</v>
       </c>
       <c r="B65" t="s">
         <v>71</v>
@@ -2431,10 +2430,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
-        <f t="shared" ref="A66:A129" si="1">CONCATENATE(LEFT(D66,3),LEFT(E66,3),C66)</f>
-        <v>EPAdiv9</v>
+        <f t="shared" si="0"/>
+        <v>EPAdha9</v>
       </c>
       <c r="B66" t="s">
         <v>72</v>
@@ -2452,10 +2451,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
-        <f t="shared" si="1"/>
-        <v>EPAdiv15</v>
+        <f t="shared" ref="A67:A130" si="1">CONCATENATE(LEFT(D67,3),RIGHT(E67,3),C67)</f>
+        <v>EPAdha15</v>
       </c>
       <c r="B67" t="s">
         <v>73</v>
@@ -2473,10 +2472,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv18</v>
+        <v>IQAdha18</v>
       </c>
       <c r="B68" t="s">
         <v>74</v>
@@ -2494,10 +2493,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv2</v>
+        <v>IQAdha2</v>
       </c>
       <c r="B69" t="s">
         <v>75</v>
@@ -2515,10 +2514,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv20</v>
+        <v>IQAdha20</v>
       </c>
       <c r="B70" t="s">
         <v>76</v>
@@ -2536,10 +2535,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv21</v>
+        <v>IQAdha21</v>
       </c>
       <c r="B71" t="s">
         <v>77</v>
@@ -2557,10 +2556,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv22</v>
+        <v>IQAdha22</v>
       </c>
       <c r="B72" t="s">
         <v>78</v>
@@ -2578,10 +2577,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv23</v>
+        <v>IQAdha23</v>
       </c>
       <c r="B73" t="s">
         <v>79</v>
@@ -2599,10 +2598,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv3</v>
+        <v>IQAdha3</v>
       </c>
       <c r="B74" t="s">
         <v>80</v>
@@ -2620,10 +2619,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv4</v>
+        <v>IQAdha4</v>
       </c>
       <c r="B75" t="s">
         <v>81</v>
@@ -2641,10 +2640,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv5</v>
+        <v>IQAdha5</v>
       </c>
       <c r="B76" t="s">
         <v>82</v>
@@ -2662,10 +2661,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv7</v>
+        <v>IQAdha7</v>
       </c>
       <c r="B77" t="s">
         <v>83</v>
@@ -2683,10 +2682,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv8</v>
+        <v>IQAdha8</v>
       </c>
       <c r="B78" t="s">
         <v>84</v>
@@ -2704,10 +2703,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv1</v>
+        <v>IQAdha1</v>
       </c>
       <c r="B79" t="s">
         <v>85</v>
@@ -2725,10 +2724,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv10</v>
+        <v>IQAdha10</v>
       </c>
       <c r="B80" t="s">
         <v>86</v>
@@ -2746,10 +2745,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv12</v>
+        <v>IQAdha12</v>
       </c>
       <c r="B81" t="s">
         <v>87</v>
@@ -2767,10 +2766,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv13</v>
+        <v>IQAdha13</v>
       </c>
       <c r="B82" t="s">
         <v>88</v>
@@ -2788,10 +2787,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv14</v>
+        <v>IQAdha14</v>
       </c>
       <c r="B83" t="s">
         <v>89</v>
@@ -2809,10 +2808,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv15</v>
+        <v>IQAdha15</v>
       </c>
       <c r="B84" t="s">
         <v>90</v>
@@ -2830,10 +2829,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv19</v>
+        <v>IQAdha19</v>
       </c>
       <c r="B85" t="s">
         <v>91</v>
@@ -2851,10 +2850,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv6</v>
+        <v>IQAdha6</v>
       </c>
       <c r="B86" t="s">
         <v>92</v>
@@ -2872,10 +2871,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv9</v>
+        <v>IQAdha9</v>
       </c>
       <c r="B87" t="s">
         <v>93</v>
@@ -2893,10 +2892,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv1</v>
+        <v>IQAkhu1</v>
       </c>
       <c r="B88" t="s">
         <v>94</v>
@@ -2914,10 +2913,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv10</v>
+        <v>IQAkhu10</v>
       </c>
       <c r="B89" t="s">
         <v>95</v>
@@ -2935,10 +2934,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv11</v>
+        <v>IQAkhu11</v>
       </c>
       <c r="B90" t="s">
         <v>96</v>
@@ -2956,10 +2955,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv12</v>
+        <v>IQAkhu12</v>
       </c>
       <c r="B91" t="s">
         <v>97</v>
@@ -2977,10 +2976,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv14</v>
+        <v>IQAkhu14</v>
       </c>
       <c r="B92" t="s">
         <v>98</v>
@@ -2998,10 +2997,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv15</v>
+        <v>IQAkhu15</v>
       </c>
       <c r="B93" t="s">
         <v>99</v>
@@ -3019,10 +3018,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv16</v>
+        <v>IQAkhu16</v>
       </c>
       <c r="B94" t="s">
         <v>100</v>
@@ -3040,10 +3039,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv17</v>
+        <v>IQAkhu17</v>
       </c>
       <c r="B95" t="s">
         <v>101</v>
@@ -3061,10 +3060,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv18</v>
+        <v>IQAkhu18</v>
       </c>
       <c r="B96" t="s">
         <v>102</v>
@@ -3082,10 +3081,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv19</v>
+        <v>IQAkhu19</v>
       </c>
       <c r="B97" t="s">
         <v>103</v>
@@ -3103,10 +3102,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv2</v>
+        <v>IQAkhu2</v>
       </c>
       <c r="B98" t="s">
         <v>104</v>
@@ -3124,10 +3123,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv20</v>
+        <v>IQAkhu20</v>
       </c>
       <c r="B99" t="s">
         <v>105</v>
@@ -3145,10 +3144,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv21</v>
+        <v>IQAkhu21</v>
       </c>
       <c r="B100" t="s">
         <v>106</v>
@@ -3166,10 +3165,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv22</v>
+        <v>IQAkhu22</v>
       </c>
       <c r="B101" t="s">
         <v>107</v>
@@ -3187,10 +3186,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv23</v>
+        <v>IQAkhu23</v>
       </c>
       <c r="B102" t="s">
         <v>108</v>
@@ -3208,10 +3207,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv3</v>
+        <v>IQAkhu3</v>
       </c>
       <c r="B103" t="s">
         <v>109</v>
@@ -3229,10 +3228,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv4</v>
+        <v>IQAkhu4</v>
       </c>
       <c r="B104" t="s">
         <v>110</v>
@@ -3250,10 +3249,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv5</v>
+        <v>IQAkhu5</v>
       </c>
       <c r="B105" t="s">
         <v>111</v>
@@ -3271,10 +3270,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv6</v>
+        <v>IQAkhu6</v>
       </c>
       <c r="B106" t="s">
         <v>112</v>
@@ -3292,10 +3291,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv7</v>
+        <v>IQAkhu7</v>
       </c>
       <c r="B107" t="s">
         <v>113</v>
@@ -3313,10 +3312,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv9</v>
+        <v>IQAkhu9</v>
       </c>
       <c r="B108" t="s">
         <v>114</v>
@@ -3334,10 +3333,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv13</v>
+        <v>IQAkhu13</v>
       </c>
       <c r="B109" t="s">
         <v>115</v>
@@ -3355,10 +3354,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv8</v>
+        <v>IQAkhu8</v>
       </c>
       <c r="B110" t="s">
         <v>116</v>
@@ -3376,10 +3375,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv10</v>
+        <v>IQAmym10</v>
       </c>
       <c r="B111" t="s">
         <v>117</v>
@@ -3397,10 +3396,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv11</v>
+        <v>IQAmym11</v>
       </c>
       <c r="B112" t="s">
         <v>118</v>
@@ -3418,10 +3417,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv12</v>
+        <v>IQAmym12</v>
       </c>
       <c r="B113" t="s">
         <v>119</v>
@@ -3439,10 +3438,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv13</v>
+        <v>IQAmym13</v>
       </c>
       <c r="B114" t="s">
         <v>120</v>
@@ -3460,10 +3459,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv14</v>
+        <v>IQAmym14</v>
       </c>
       <c r="B115" t="s">
         <v>121</v>
@@ -3481,10 +3480,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv15</v>
+        <v>IQAmym15</v>
       </c>
       <c r="B116" t="s">
         <v>122</v>
@@ -3502,10 +3501,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv16</v>
+        <v>IQAmym16</v>
       </c>
       <c r="B117" t="s">
         <v>123</v>
@@ -3523,10 +3522,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv17</v>
+        <v>IQAmym17</v>
       </c>
       <c r="B118" t="s">
         <v>124</v>
@@ -3544,10 +3543,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv18</v>
+        <v>IQAmym18</v>
       </c>
       <c r="B119" t="s">
         <v>125</v>
@@ -3565,10 +3564,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv19</v>
+        <v>IQAmym19</v>
       </c>
       <c r="B120" t="s">
         <v>126</v>
@@ -3586,10 +3585,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv20</v>
+        <v>IQAmym20</v>
       </c>
       <c r="B121" t="s">
         <v>127</v>
@@ -3607,10 +3606,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv21</v>
+        <v>IQAmym21</v>
       </c>
       <c r="B122" t="s">
         <v>128</v>
@@ -3628,10 +3627,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv22</v>
+        <v>IQAmym22</v>
       </c>
       <c r="B123" t="s">
         <v>129</v>
@@ -3649,10 +3648,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv23</v>
+        <v>IQAmym23</v>
       </c>
       <c r="B124" t="s">
         <v>130</v>
@@ -3670,10 +3669,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv4</v>
+        <v>IQAmym4</v>
       </c>
       <c r="B125" t="s">
         <v>131</v>
@@ -3691,10 +3690,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv5</v>
+        <v>IQAmym5</v>
       </c>
       <c r="B126" t="s">
         <v>132</v>
@@ -3712,10 +3711,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv6</v>
+        <v>IQAmym6</v>
       </c>
       <c r="B127" t="s">
         <v>133</v>
@@ -3733,10 +3732,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv7</v>
+        <v>IQAmym7</v>
       </c>
       <c r="B128" t="s">
         <v>134</v>
@@ -3754,10 +3753,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="str">
         <f t="shared" si="1"/>
-        <v>IQAdiv8</v>
+        <v>IQAmym8</v>
       </c>
       <c r="B129" t="s">
         <v>135</v>
@@ -3775,10 +3774,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="str">
-        <f t="shared" ref="A130:A193" si="2">CONCATENATE(LEFT(D130,3),LEFT(E130,3),C130)</f>
-        <v>IQAdiv1</v>
+        <f t="shared" si="1"/>
+        <v>IQAmym1</v>
       </c>
       <c r="B130" t="s">
         <v>136</v>
@@ -3796,10 +3795,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="str">
-        <f t="shared" si="2"/>
-        <v>IQAdiv2</v>
+        <f t="shared" ref="A131:A194" si="2">CONCATENATE(LEFT(D131,3),RIGHT(E131,3),C131)</f>
+        <v>IQAmym2</v>
       </c>
       <c r="B131" t="s">
         <v>137</v>
@@ -3817,10 +3816,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="str">
         <f t="shared" si="2"/>
-        <v>IQAdiv3</v>
+        <v>IQAmym3</v>
       </c>
       <c r="B132" t="s">
         <v>138</v>
@@ -3838,10 +3837,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="str">
         <f t="shared" si="2"/>
-        <v>IQAdiv9</v>
+        <v>IQAmym9</v>
       </c>
       <c r="B133" t="s">
         <v>139</v>
@@ -3859,10 +3858,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="str">
         <f t="shared" si="2"/>
-        <v>IQAdiv1</v>
+        <v>IQAraj1</v>
       </c>
       <c r="B134" t="s">
         <v>140</v>
@@ -3880,10 +3879,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="str">
         <f t="shared" si="2"/>
-        <v>IQAdiv10</v>
+        <v>IQAraj10</v>
       </c>
       <c r="B135" t="s">
         <v>141</v>
@@ -3901,10 +3900,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="str">
         <f t="shared" si="2"/>
-        <v>IQAdiv11</v>
+        <v>IQAraj11</v>
       </c>
       <c r="B136" t="s">
         <v>142</v>
@@ -3922,10 +3921,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="str">
         <f t="shared" si="2"/>
-        <v>IQAdiv12</v>
+        <v>IQAraj12</v>
       </c>
       <c r="B137" t="s">
         <v>143</v>
@@ -3943,10 +3942,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="str">
         <f t="shared" si="2"/>
-        <v>IQAdiv13</v>
+        <v>IQAraj13</v>
       </c>
       <c r="B138" t="s">
         <v>144</v>
@@ -3964,10 +3963,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="str">
         <f t="shared" si="2"/>
-        <v>IQAdiv15</v>
+        <v>IQAraj15</v>
       </c>
       <c r="B139" t="s">
         <v>145</v>
@@ -3985,10 +3984,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="str">
         <f t="shared" si="2"/>
-        <v>IQAdiv16</v>
+        <v>IQAraj16</v>
       </c>
       <c r="B140" t="s">
         <v>146</v>
@@ -4006,10 +4005,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv18</v>
+        <v>Purraj18</v>
       </c>
       <c r="B141" t="s">
         <v>147</v>
@@ -4027,10 +4026,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv19</v>
+        <v>Purraj19</v>
       </c>
       <c r="B142" t="s">
         <v>148</v>
@@ -4048,10 +4047,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv2</v>
+        <v>Purraj2</v>
       </c>
       <c r="B143" t="s">
         <v>149</v>
@@ -4069,10 +4068,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv20</v>
+        <v>Purraj20</v>
       </c>
       <c r="B144" t="s">
         <v>150</v>
@@ -4090,10 +4089,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv21</v>
+        <v>Purraj21</v>
       </c>
       <c r="B145" t="s">
         <v>151</v>
@@ -4111,10 +4110,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv22</v>
+        <v>Purraj22</v>
       </c>
       <c r="B146" t="s">
         <v>152</v>
@@ -4132,10 +4131,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv23</v>
+        <v>Purraj23</v>
       </c>
       <c r="B147" t="s">
         <v>153</v>
@@ -4153,10 +4152,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv5</v>
+        <v>Purraj5</v>
       </c>
       <c r="B148" t="s">
         <v>154</v>
@@ -4174,10 +4173,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv6</v>
+        <v>Purraj6</v>
       </c>
       <c r="B149" t="s">
         <v>155</v>
@@ -4195,10 +4194,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv7</v>
+        <v>Purraj7</v>
       </c>
       <c r="B150" t="s">
         <v>156</v>
@@ -4216,10 +4215,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv8</v>
+        <v>Purraj8</v>
       </c>
       <c r="B151" t="s">
         <v>157</v>
@@ -4237,10 +4236,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv1</v>
+        <v>Purraj1</v>
       </c>
       <c r="B152" t="s">
         <v>158</v>
@@ -4258,10 +4257,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv11</v>
+        <v>Purraj11</v>
       </c>
       <c r="B153" t="s">
         <v>159</v>
@@ -4279,10 +4278,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv12</v>
+        <v>Purraj12</v>
       </c>
       <c r="B154" t="s">
         <v>160</v>
@@ -4300,10 +4299,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv15</v>
+        <v>Purraj15</v>
       </c>
       <c r="B155" t="s">
         <v>161</v>
@@ -4321,10 +4320,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv16</v>
+        <v>Purraj16</v>
       </c>
       <c r="B156" t="s">
         <v>162</v>
@@ -4342,10 +4341,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv17</v>
+        <v>Purraj17</v>
       </c>
       <c r="B157" t="s">
         <v>163</v>
@@ -4363,10 +4362,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv3</v>
+        <v>Purraj3</v>
       </c>
       <c r="B158" t="s">
         <v>164</v>
@@ -4384,10 +4383,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv4</v>
+        <v>Purraj4</v>
       </c>
       <c r="B159" t="s">
         <v>165</v>
@@ -4405,10 +4404,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv9</v>
+        <v>Purraj9</v>
       </c>
       <c r="B160" t="s">
         <v>166</v>
@@ -4426,10 +4425,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv10</v>
+        <v>Purraj10</v>
       </c>
       <c r="B161" t="s">
         <v>167</v>
@@ -4447,10 +4446,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv13</v>
+        <v>Purraj13</v>
       </c>
       <c r="B162" t="s">
         <v>168</v>
@@ -4468,10 +4467,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv14</v>
+        <v>Purraj14</v>
       </c>
       <c r="B163" t="s">
         <v>169</v>
@@ -4489,10 +4488,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv1</v>
+        <v>Purran1</v>
       </c>
       <c r="B164" t="s">
         <v>170</v>
@@ -4510,10 +4509,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv10</v>
+        <v>Purran10</v>
       </c>
       <c r="B165" t="s">
         <v>171</v>
@@ -4531,10 +4530,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv11</v>
+        <v>Purran11</v>
       </c>
       <c r="B166" t="s">
         <v>172</v>
@@ -4552,10 +4551,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv12</v>
+        <v>Purran12</v>
       </c>
       <c r="B167" t="s">
         <v>173</v>
@@ -4573,10 +4572,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv13</v>
+        <v>Purran13</v>
       </c>
       <c r="B168" t="s">
         <v>174</v>
@@ -4594,10 +4593,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv14</v>
+        <v>Purran14</v>
       </c>
       <c r="B169" t="s">
         <v>175</v>
@@ -4615,10 +4614,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv15</v>
+        <v>Purran15</v>
       </c>
       <c r="B170" t="s">
         <v>176</v>
@@ -4636,10 +4635,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv17</v>
+        <v>Purran17</v>
       </c>
       <c r="B171" t="s">
         <v>177</v>
@@ -4657,10 +4656,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv18</v>
+        <v>Purran18</v>
       </c>
       <c r="B172" t="s">
         <v>178</v>
@@ -4678,10 +4677,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv19</v>
+        <v>Purran19</v>
       </c>
       <c r="B173" t="s">
         <v>179</v>
@@ -4699,10 +4698,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv20</v>
+        <v>Purran20</v>
       </c>
       <c r="B174" t="s">
         <v>180</v>
@@ -4720,10 +4719,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv21</v>
+        <v>Purran21</v>
       </c>
       <c r="B175" t="s">
         <v>181</v>
@@ -4741,10 +4740,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv23</v>
+        <v>Purran23</v>
       </c>
       <c r="B176" t="s">
         <v>182</v>
@@ -4762,10 +4761,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv3</v>
+        <v>Purran3</v>
       </c>
       <c r="B177" t="s">
         <v>183</v>
@@ -4783,10 +4782,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv4</v>
+        <v>Purran4</v>
       </c>
       <c r="B178" t="s">
         <v>184</v>
@@ -4804,10 +4803,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv5</v>
+        <v>Purran5</v>
       </c>
       <c r="B179" t="s">
         <v>185</v>
@@ -4825,10 +4824,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv7</v>
+        <v>Purran7</v>
       </c>
       <c r="B180" t="s">
         <v>186</v>
@@ -4846,10 +4845,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv16</v>
+        <v>Purran16</v>
       </c>
       <c r="B181" t="s">
         <v>187</v>
@@ -4867,10 +4866,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv2</v>
+        <v>Purran2</v>
       </c>
       <c r="B182" t="s">
         <v>188</v>
@@ -4888,10 +4887,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv8</v>
+        <v>Purran8</v>
       </c>
       <c r="B183" t="s">
         <v>189</v>
@@ -4909,10 +4908,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv9</v>
+        <v>Purran9</v>
       </c>
       <c r="B184" t="s">
         <v>190</v>
@@ -4930,10 +4929,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv22</v>
+        <v>Purran22</v>
       </c>
       <c r="B185" t="s">
         <v>191</v>
@@ -4951,10 +4950,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv6</v>
+        <v>Purran6</v>
       </c>
       <c r="B186" t="s">
         <v>192</v>
@@ -4972,10 +4971,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv1</v>
+        <v>Pursyl1</v>
       </c>
       <c r="B187" t="s">
         <v>193</v>
@@ -4993,10 +4992,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv10</v>
+        <v>Pursyl10</v>
       </c>
       <c r="B188" t="s">
         <v>194</v>
@@ -5014,10 +5013,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv11</v>
+        <v>Pursyl11</v>
       </c>
       <c r="B189" t="s">
         <v>195</v>
@@ -5035,10 +5034,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv13</v>
+        <v>Pursyl13</v>
       </c>
       <c r="B190" t="s">
         <v>196</v>
@@ -5056,10 +5055,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv14</v>
+        <v>Pursyl14</v>
       </c>
       <c r="B191" t="s">
         <v>197</v>
@@ -5077,10 +5076,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv15</v>
+        <v>Pursyl15</v>
       </c>
       <c r="B192" t="s">
         <v>198</v>
@@ -5098,10 +5097,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="str">
         <f t="shared" si="2"/>
-        <v>Purdiv16</v>
+        <v>Pursyl16</v>
       </c>
       <c r="B193" t="s">
         <v>199</v>
@@ -5119,10 +5118,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="str">
-        <f t="shared" ref="A194:A209" si="3">CONCATENATE(LEFT(D194,3),LEFT(E194,3),C194)</f>
-        <v>Purdiv17</v>
+        <f t="shared" si="2"/>
+        <v>Pursyl17</v>
       </c>
       <c r="B194" t="s">
         <v>200</v>
@@ -5140,10 +5139,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="str">
-        <f t="shared" si="3"/>
-        <v>Purdiv18</v>
+        <f t="shared" ref="A195:A209" si="3">CONCATENATE(LEFT(D195,3),RIGHT(E195,3),C195)</f>
+        <v>Pursyl18</v>
       </c>
       <c r="B195" t="s">
         <v>201</v>
@@ -5161,10 +5160,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="str">
         <f t="shared" si="3"/>
-        <v>Purdiv19</v>
+        <v>Pursyl19</v>
       </c>
       <c r="B196" t="s">
         <v>202</v>
@@ -5182,10 +5181,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="str">
         <f t="shared" si="3"/>
-        <v>Purdiv2</v>
+        <v>Pursyl2</v>
       </c>
       <c r="B197" t="s">
         <v>203</v>
@@ -5203,10 +5202,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="str">
         <f t="shared" si="3"/>
-        <v>Purdiv20</v>
+        <v>Pursyl20</v>
       </c>
       <c r="B198" t="s">
         <v>204</v>
@@ -5224,10 +5223,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="str">
         <f t="shared" si="3"/>
-        <v>Purdiv21</v>
+        <v>Pursyl21</v>
       </c>
       <c r="B199" t="s">
         <v>205</v>
@@ -5245,10 +5244,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="str">
         <f t="shared" si="3"/>
-        <v>Purdiv23</v>
+        <v>Pursyl23</v>
       </c>
       <c r="B200" t="s">
         <v>206</v>
@@ -5266,10 +5265,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="str">
         <f t="shared" si="3"/>
-        <v>Purdiv3</v>
+        <v>Pursyl3</v>
       </c>
       <c r="B201" t="s">
         <v>207</v>
@@ -5287,10 +5286,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="str">
         <f t="shared" si="3"/>
-        <v>Purdiv5</v>
+        <v>Pursyl5</v>
       </c>
       <c r="B202" t="s">
         <v>208</v>
@@ -5308,10 +5307,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="str">
         <f t="shared" si="3"/>
-        <v>Purdiv7</v>
+        <v>Pursyl7</v>
       </c>
       <c r="B203" t="s">
         <v>209</v>
@@ -5329,10 +5328,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="str">
         <f t="shared" si="3"/>
-        <v>Purdiv8</v>
+        <v>Pursyl8</v>
       </c>
       <c r="B204" t="s">
         <v>210</v>
@@ -5350,10 +5349,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="str">
         <f t="shared" si="3"/>
-        <v>Purdiv12</v>
+        <v>Pursyl12</v>
       </c>
       <c r="B205" t="s">
         <v>211</v>
@@ -5371,10 +5370,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="str">
         <f t="shared" si="3"/>
-        <v>Purdiv22</v>
+        <v>Pursyl22</v>
       </c>
       <c r="B206" t="s">
         <v>212</v>
@@ -5392,10 +5391,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="str">
         <f t="shared" si="3"/>
-        <v>Purdiv4</v>
+        <v>Pursyl4</v>
       </c>
       <c r="B207" t="s">
         <v>213</v>
@@ -5413,10 +5412,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="str">
         <f t="shared" si="3"/>
-        <v>Purdiv6</v>
+        <v>Pursyl6</v>
       </c>
       <c r="B208" t="s">
         <v>214</v>
@@ -5434,10 +5433,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="str">
         <f t="shared" si="3"/>
-        <v>Purdiv9</v>
+        <v>Pursyl9</v>
       </c>
       <c r="B209" t="s">
         <v>215</v>
@@ -5456,8 +5455,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C466" xr:uid="{63171248-C639-426A-8BBA-864EBEC70539}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C1034">
+  <autoFilter ref="A1:F209"/>
+  <sortState ref="C2:C1034">
     <sortCondition ref="C1:C1034"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/y-Manipulated Tables/DataSet/Tables/STATION.xlsx
+++ b/y-Manipulated Tables/DataSet/Tables/STATION.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Niaz\git\CSE303-sec-03-Group-03\y-Manipulated Tables\DataSet\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BDSM\CSE303-sec-03-Group-03\y-Manipulated Tables\DataSet\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011230D6-F73D-4A5D-BB8E-7FB5FC09CBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="-28920" yWindow="4575" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$F$209</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,6 +31,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -726,7 +728,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1051,22 +1053,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A186" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A209"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1086,7 +1088,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(LEFT(D2,3),RIGHT(E2,3),C2)</f>
         <v>EPAbar1</v>
@@ -1107,7 +1109,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A66" si="0">CONCATENATE(LEFT(D3,3),RIGHT(E3,3),C3)</f>
         <v>EPAbar10</v>
@@ -1128,7 +1130,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>EPAbar11</v>
@@ -1149,7 +1151,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>EPAbar12</v>
@@ -1170,7 +1172,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>EPAbar13</v>
@@ -1191,7 +1193,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>EPAbar16</v>
@@ -1212,7 +1214,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>EPAbar17</v>
@@ -1233,7 +1235,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>EPAbar19</v>
@@ -1254,7 +1256,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>EPAbar2</v>
@@ -1275,7 +1277,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>EPAbar20</v>
@@ -1296,7 +1298,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>EPAbar21</v>
@@ -1317,7 +1319,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>EPAbar22</v>
@@ -1338,7 +1340,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>EPAbar3</v>
@@ -1359,7 +1361,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>EPAbar4</v>
@@ -1380,7 +1382,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>EPAbar5</v>
@@ -1401,7 +1403,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>EPAbar6</v>
@@ -1422,7 +1424,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>EPAbar7</v>
@@ -1443,7 +1445,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>EPAbar9</v>
@@ -1464,7 +1466,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>EPAbar14</v>
@@ -1485,7 +1487,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>EPAbar15</v>
@@ -1506,7 +1508,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>EPAbar18</v>
@@ -1527,7 +1529,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>EPAbar23</v>
@@ -1548,7 +1550,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>EPAbar8</v>
@@ -1569,7 +1571,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>EPAchi1</v>
@@ -1590,7 +1592,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>EPAchi10</v>
@@ -1611,7 +1613,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>EPAchi11</v>
@@ -1632,7 +1634,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>EPAchi12</v>
@@ -1653,7 +1655,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>EPAchi13</v>
@@ -1674,7 +1676,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>EPAchi14</v>
@@ -1695,7 +1697,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>EPAchi15</v>
@@ -1716,7 +1718,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>EPAchi16</v>
@@ -1737,7 +1739,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>EPAchi18</v>
@@ -1758,7 +1760,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>EPAchi2</v>
@@ -1779,7 +1781,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>EPAchi20</v>
@@ -1800,7 +1802,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>EPAchi21</v>
@@ -1821,7 +1823,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>EPAchi23</v>
@@ -1842,7 +1844,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>EPAchi3</v>
@@ -1863,7 +1865,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>EPAchi4</v>
@@ -1884,7 +1886,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>EPAchi5</v>
@@ -1905,7 +1907,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>EPAchi7</v>
@@ -1926,7 +1928,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>EPAchi8</v>
@@ -1947,7 +1949,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>EPAchi9</v>
@@ -1968,7 +1970,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>EPAchi19</v>
@@ -1989,7 +1991,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>EPAchi22</v>
@@ -2010,7 +2012,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>EPAchi6</v>
@@ -2031,7 +2033,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>EPAchi17</v>
@@ -2052,7 +2054,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>EPAdha1</v>
@@ -2073,7 +2075,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>EPAdha11</v>
@@ -2094,7 +2096,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>EPAdha12</v>
@@ -2115,7 +2117,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>EPAdha13</v>
@@ -2136,7 +2138,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>EPAdha14</v>
@@ -2157,7 +2159,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>EPAdha16</v>
@@ -2178,7 +2180,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>EPAdha17</v>
@@ -2199,7 +2201,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>EPAdha18</v>
@@ -2220,7 +2222,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>EPAdha19</v>
@@ -2241,7 +2243,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>EPAdha2</v>
@@ -2262,7 +2264,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>EPAdha20</v>
@@ -2283,7 +2285,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>EPAdha21</v>
@@ -2304,7 +2306,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>EPAdha22</v>
@@ -2325,7 +2327,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>EPAdha3</v>
@@ -2346,7 +2348,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>EPAdha4</v>
@@ -2367,7 +2369,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>EPAdha6</v>
@@ -2388,7 +2390,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>EPAdha7</v>
@@ -2409,7 +2411,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>EPAdha8</v>
@@ -2430,7 +2432,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
         <v>EPAdha9</v>
@@ -2451,7 +2453,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f t="shared" ref="A67:A130" si="1">CONCATENATE(LEFT(D67,3),RIGHT(E67,3),C67)</f>
         <v>EPAdha15</v>
@@ -2472,7 +2474,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f t="shared" si="1"/>
         <v>IQAdha18</v>
@@ -2493,7 +2495,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
         <v>IQAdha2</v>
@@ -2514,7 +2516,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
         <v>IQAdha20</v>
@@ -2535,7 +2537,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
         <v>IQAdha21</v>
@@ -2556,7 +2558,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
         <v>IQAdha22</v>
@@ -2577,7 +2579,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
         <v>IQAdha23</v>
@@ -2598,7 +2600,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
         <v>IQAdha3</v>
@@ -2619,7 +2621,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
         <v>IQAdha4</v>
@@ -2640,7 +2642,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
         <v>IQAdha5</v>
@@ -2661,7 +2663,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
         <v>IQAdha7</v>
@@ -2682,7 +2684,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
         <v>IQAdha8</v>
@@ -2703,7 +2705,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
         <v>IQAdha1</v>
@@ -2724,7 +2726,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
         <v>IQAdha10</v>
@@ -2745,7 +2747,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
         <v>IQAdha12</v>
@@ -2766,7 +2768,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
         <v>IQAdha13</v>
@@ -2787,7 +2789,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f t="shared" si="1"/>
         <v>IQAdha14</v>
@@ -2808,7 +2810,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
         <v>IQAdha15</v>
@@ -2829,7 +2831,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f t="shared" si="1"/>
         <v>IQAdha19</v>
@@ -2850,7 +2852,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f t="shared" si="1"/>
         <v>IQAdha6</v>
@@ -2871,7 +2873,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f t="shared" si="1"/>
         <v>IQAdha9</v>
@@ -2892,7 +2894,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f t="shared" si="1"/>
         <v>IQAkhu1</v>
@@ -2913,7 +2915,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f t="shared" si="1"/>
         <v>IQAkhu10</v>
@@ -2934,7 +2936,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f t="shared" si="1"/>
         <v>IQAkhu11</v>
@@ -2955,7 +2957,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f t="shared" si="1"/>
         <v>IQAkhu12</v>
@@ -2976,7 +2978,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f t="shared" si="1"/>
         <v>IQAkhu14</v>
@@ -2997,7 +2999,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f t="shared" si="1"/>
         <v>IQAkhu15</v>
@@ -3018,7 +3020,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f t="shared" si="1"/>
         <v>IQAkhu16</v>
@@ -3039,7 +3041,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" si="1"/>
         <v>IQAkhu17</v>
@@ -3060,7 +3062,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" si="1"/>
         <v>IQAkhu18</v>
@@ -3081,7 +3083,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f t="shared" si="1"/>
         <v>IQAkhu19</v>
@@ -3102,7 +3104,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f t="shared" si="1"/>
         <v>IQAkhu2</v>
@@ -3123,7 +3125,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f t="shared" si="1"/>
         <v>IQAkhu20</v>
@@ -3144,7 +3146,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f t="shared" si="1"/>
         <v>IQAkhu21</v>
@@ -3165,7 +3167,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f t="shared" si="1"/>
         <v>IQAkhu22</v>
@@ -3186,7 +3188,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f t="shared" si="1"/>
         <v>IQAkhu23</v>
@@ -3207,7 +3209,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f t="shared" si="1"/>
         <v>IQAkhu3</v>
@@ -3228,7 +3230,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" si="1"/>
         <v>IQAkhu4</v>
@@ -3249,7 +3251,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f t="shared" si="1"/>
         <v>IQAkhu5</v>
@@ -3270,7 +3272,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f t="shared" si="1"/>
         <v>IQAkhu6</v>
@@ -3291,7 +3293,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f t="shared" si="1"/>
         <v>IQAkhu7</v>
@@ -3312,7 +3314,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f t="shared" si="1"/>
         <v>IQAkhu9</v>
@@ -3333,7 +3335,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f t="shared" si="1"/>
         <v>IQAkhu13</v>
@@ -3354,7 +3356,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" si="1"/>
         <v>IQAkhu8</v>
@@ -3375,7 +3377,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" si="1"/>
         <v>IQAmym10</v>
@@ -3396,7 +3398,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f t="shared" si="1"/>
         <v>IQAmym11</v>
@@ -3417,7 +3419,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f t="shared" si="1"/>
         <v>IQAmym12</v>
@@ -3438,7 +3440,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f t="shared" si="1"/>
         <v>IQAmym13</v>
@@ -3459,7 +3461,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f t="shared" si="1"/>
         <v>IQAmym14</v>
@@ -3480,7 +3482,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f t="shared" si="1"/>
         <v>IQAmym15</v>
@@ -3501,7 +3503,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f t="shared" si="1"/>
         <v>IQAmym16</v>
@@ -3522,7 +3524,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f t="shared" si="1"/>
         <v>IQAmym17</v>
@@ -3543,7 +3545,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f t="shared" si="1"/>
         <v>IQAmym18</v>
@@ -3564,7 +3566,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f t="shared" si="1"/>
         <v>IQAmym19</v>
@@ -3585,7 +3587,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f t="shared" si="1"/>
         <v>IQAmym20</v>
@@ -3606,7 +3608,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
         <f t="shared" si="1"/>
         <v>IQAmym21</v>
@@ -3627,7 +3629,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
         <f t="shared" si="1"/>
         <v>IQAmym22</v>
@@ -3648,7 +3650,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
         <f t="shared" si="1"/>
         <v>IQAmym23</v>
@@ -3669,7 +3671,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
         <f t="shared" si="1"/>
         <v>IQAmym4</v>
@@ -3690,7 +3692,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
         <f t="shared" si="1"/>
         <v>IQAmym5</v>
@@ -3711,7 +3713,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
         <f t="shared" si="1"/>
         <v>IQAmym6</v>
@@ -3732,7 +3734,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
         <f t="shared" si="1"/>
         <v>IQAmym7</v>
@@ -3753,7 +3755,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
         <f t="shared" si="1"/>
         <v>IQAmym8</v>
@@ -3774,7 +3776,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
         <f t="shared" si="1"/>
         <v>IQAmym1</v>
@@ -3795,7 +3797,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
         <f t="shared" ref="A131:A194" si="2">CONCATENATE(LEFT(D131,3),RIGHT(E131,3),C131)</f>
         <v>IQAmym2</v>
@@ -3816,7 +3818,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
         <f t="shared" si="2"/>
         <v>IQAmym3</v>
@@ -3837,7 +3839,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
         <f t="shared" si="2"/>
         <v>IQAmym9</v>
@@ -3858,7 +3860,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
         <f t="shared" si="2"/>
         <v>IQAraj1</v>
@@ -3879,7 +3881,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
         <f t="shared" si="2"/>
         <v>IQAraj10</v>
@@ -3900,7 +3902,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
         <f t="shared" si="2"/>
         <v>IQAraj11</v>
@@ -3921,7 +3923,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
         <f t="shared" si="2"/>
         <v>IQAraj12</v>
@@ -3942,7 +3944,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
         <f t="shared" si="2"/>
         <v>IQAraj13</v>
@@ -3963,7 +3965,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
         <f t="shared" si="2"/>
         <v>IQAraj15</v>
@@ -3984,7 +3986,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
         <f t="shared" si="2"/>
         <v>IQAraj16</v>
@@ -4005,7 +4007,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
         <f t="shared" si="2"/>
         <v>Purraj18</v>
@@ -4026,7 +4028,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
         <f t="shared" si="2"/>
         <v>Purraj19</v>
@@ -4047,7 +4049,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
         <f t="shared" si="2"/>
         <v>Purraj2</v>
@@ -4068,7 +4070,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
         <f t="shared" si="2"/>
         <v>Purraj20</v>
@@ -4089,7 +4091,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <f t="shared" si="2"/>
         <v>Purraj21</v>
@@ -4110,7 +4112,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
         <f t="shared" si="2"/>
         <v>Purraj22</v>
@@ -4131,7 +4133,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
         <f t="shared" si="2"/>
         <v>Purraj23</v>
@@ -4152,7 +4154,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
         <f t="shared" si="2"/>
         <v>Purraj5</v>
@@ -4173,7 +4175,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <f t="shared" si="2"/>
         <v>Purraj6</v>
@@ -4194,7 +4196,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
         <f t="shared" si="2"/>
         <v>Purraj7</v>
@@ -4215,7 +4217,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <f t="shared" si="2"/>
         <v>Purraj8</v>
@@ -4236,7 +4238,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <f t="shared" si="2"/>
         <v>Purraj1</v>
@@ -4257,7 +4259,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
         <f t="shared" si="2"/>
         <v>Purraj11</v>
@@ -4278,7 +4280,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
         <f t="shared" si="2"/>
         <v>Purraj12</v>
@@ -4299,7 +4301,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
         <f t="shared" si="2"/>
         <v>Purraj15</v>
@@ -4320,7 +4322,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
         <f t="shared" si="2"/>
         <v>Purraj16</v>
@@ -4341,7 +4343,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
         <f t="shared" si="2"/>
         <v>Purraj17</v>
@@ -4362,7 +4364,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
         <f t="shared" si="2"/>
         <v>Purraj3</v>
@@ -4383,7 +4385,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
         <f t="shared" si="2"/>
         <v>Purraj4</v>
@@ -4404,7 +4406,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
         <f t="shared" si="2"/>
         <v>Purraj9</v>
@@ -4425,7 +4427,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
         <f t="shared" si="2"/>
         <v>Purraj10</v>
@@ -4446,7 +4448,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="str">
         <f t="shared" si="2"/>
         <v>Purraj13</v>
@@ -4467,7 +4469,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="str">
         <f t="shared" si="2"/>
         <v>Purraj14</v>
@@ -4488,7 +4490,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
         <f t="shared" si="2"/>
         <v>Purran1</v>
@@ -4509,7 +4511,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
         <f t="shared" si="2"/>
         <v>Purran10</v>
@@ -4530,7 +4532,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
         <f t="shared" si="2"/>
         <v>Purran11</v>
@@ -4551,7 +4553,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
         <f t="shared" si="2"/>
         <v>Purran12</v>
@@ -4572,7 +4574,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
         <f t="shared" si="2"/>
         <v>Purran13</v>
@@ -4593,7 +4595,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
         <f t="shared" si="2"/>
         <v>Purran14</v>
@@ -4614,7 +4616,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="str">
         <f t="shared" si="2"/>
         <v>Purran15</v>
@@ -4635,7 +4637,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
         <f t="shared" si="2"/>
         <v>Purran17</v>
@@ -4656,7 +4658,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
         <f t="shared" si="2"/>
         <v>Purran18</v>
@@ -4677,7 +4679,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="str">
         <f t="shared" si="2"/>
         <v>Purran19</v>
@@ -4698,7 +4700,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
         <f t="shared" si="2"/>
         <v>Purran20</v>
@@ -4719,7 +4721,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
         <f t="shared" si="2"/>
         <v>Purran21</v>
@@ -4740,7 +4742,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="str">
         <f t="shared" si="2"/>
         <v>Purran23</v>
@@ -4761,7 +4763,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="str">
         <f t="shared" si="2"/>
         <v>Purran3</v>
@@ -4782,7 +4784,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="str">
         <f t="shared" si="2"/>
         <v>Purran4</v>
@@ -4803,7 +4805,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="str">
         <f t="shared" si="2"/>
         <v>Purran5</v>
@@ -4824,7 +4826,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="str">
         <f t="shared" si="2"/>
         <v>Purran7</v>
@@ -4845,7 +4847,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="str">
         <f t="shared" si="2"/>
         <v>Purran16</v>
@@ -4866,7 +4868,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="str">
         <f t="shared" si="2"/>
         <v>Purran2</v>
@@ -4887,7 +4889,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="str">
         <f t="shared" si="2"/>
         <v>Purran8</v>
@@ -4908,7 +4910,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="str">
         <f t="shared" si="2"/>
         <v>Purran9</v>
@@ -4929,7 +4931,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="str">
         <f t="shared" si="2"/>
         <v>Purran22</v>
@@ -4950,7 +4952,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="str">
         <f t="shared" si="2"/>
         <v>Purran6</v>
@@ -4971,7 +4973,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="str">
         <f t="shared" si="2"/>
         <v>Pursyl1</v>
@@ -4992,7 +4994,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="str">
         <f t="shared" si="2"/>
         <v>Pursyl10</v>
@@ -5013,7 +5015,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="str">
         <f t="shared" si="2"/>
         <v>Pursyl11</v>
@@ -5034,7 +5036,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="str">
         <f t="shared" si="2"/>
         <v>Pursyl13</v>
@@ -5055,7 +5057,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="str">
         <f t="shared" si="2"/>
         <v>Pursyl14</v>
@@ -5076,7 +5078,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="str">
         <f t="shared" si="2"/>
         <v>Pursyl15</v>
@@ -5097,7 +5099,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="str">
         <f t="shared" si="2"/>
         <v>Pursyl16</v>
@@ -5118,7 +5120,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="str">
         <f t="shared" si="2"/>
         <v>Pursyl17</v>
@@ -5139,7 +5141,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="str">
         <f t="shared" ref="A195:A209" si="3">CONCATENATE(LEFT(D195,3),RIGHT(E195,3),C195)</f>
         <v>Pursyl18</v>
@@ -5160,7 +5162,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="str">
         <f t="shared" si="3"/>
         <v>Pursyl19</v>
@@ -5181,7 +5183,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="str">
         <f t="shared" si="3"/>
         <v>Pursyl2</v>
@@ -5202,7 +5204,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="str">
         <f t="shared" si="3"/>
         <v>Pursyl20</v>
@@ -5223,7 +5225,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="str">
         <f t="shared" si="3"/>
         <v>Pursyl21</v>
@@ -5244,7 +5246,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="str">
         <f t="shared" si="3"/>
         <v>Pursyl23</v>
@@ -5265,7 +5267,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="str">
         <f t="shared" si="3"/>
         <v>Pursyl3</v>
@@ -5286,7 +5288,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="str">
         <f t="shared" si="3"/>
         <v>Pursyl5</v>
@@ -5307,7 +5309,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="str">
         <f t="shared" si="3"/>
         <v>Pursyl7</v>
@@ -5328,7 +5330,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="str">
         <f t="shared" si="3"/>
         <v>Pursyl8</v>
@@ -5349,7 +5351,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="str">
         <f t="shared" si="3"/>
         <v>Pursyl12</v>
@@ -5370,7 +5372,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="str">
         <f t="shared" si="3"/>
         <v>Pursyl22</v>
@@ -5391,7 +5393,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="str">
         <f t="shared" si="3"/>
         <v>Pursyl4</v>
@@ -5412,7 +5414,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="str">
         <f t="shared" si="3"/>
         <v>Pursyl6</v>
@@ -5433,7 +5435,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="str">
         <f t="shared" si="3"/>
         <v>Pursyl9</v>
@@ -5455,8 +5457,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F209"/>
-  <sortState ref="C2:C1034">
+  <autoFilter ref="A1:F209" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C1034">
     <sortCondition ref="C1:C1034"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
